--- a/Tables/aq_counts_outlet_gages_50_90.xlsx
+++ b/Tables/aq_counts_outlet_gages_50_90.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
